--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_6_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_6_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2928646.250999659</v>
+        <v>-2929358.552822702</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.7199159989</v>
+        <v>167214.719915999</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.451805854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16640540.28070217</v>
+        <v>16640540.28070218</v>
       </c>
     </row>
     <row r="11">
@@ -1221,20 +1221,20 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1254,28 +1254,28 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>2.817899082923868</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="H11" t="n">
-        <v>158.6122321087992</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>62.86150506240821</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929901</v>
+        <v>16.733281229299</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675142</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958192</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>131.7489312971104</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298091</v>
+        <v>9.369887371298063</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>142.9502194268435</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161037</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>188.4979333192472</v>
+        <v>69.63192413151023</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242245</v>
+        <v>36.82265945242242</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382078</v>
+        <v>59.07980534382075</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233442</v>
+        <v>62.50065676233439</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394376</v>
+        <v>88.55631942394373</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640278</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095779</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256629</v>
+        <v>25.28169700256626</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311271</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>91.67484974106253</v>
       </c>
       <c r="E14" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="F14" t="n">
-        <v>126.4152500742868</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929902</v>
+        <v>16.733281229299</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538035</v>
+        <v>49.36873040538032</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675141</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298091</v>
+        <v>9.369887371298063</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>83.45813597156173</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>188.4979333192471</v>
+        <v>13.44252716693646</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242245</v>
+        <v>36.82265945242242</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382078</v>
+        <v>59.07980534382075</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233442</v>
+        <v>62.50065676233439</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394376</v>
+        <v>88.55631942394373</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640278</v>
+        <v>39.16465028640275</v>
       </c>
       <c r="Y15" t="n">
-        <v>188.1862414078011</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256629</v>
+        <v>25.28169700256626</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311271</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W16" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.6395694508488</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75782645419429</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524275</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465162</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7515787130289</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G17" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156603</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.43211268216749</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878236</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X17" t="n">
-        <v>62.3350433677216</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146536</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>188.4979333192471</v>
+        <v>7.210919724844715</v>
       </c>
       <c r="T18" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.7764185891741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2093,7 @@
         <v>105.751578713029</v>
       </c>
       <c r="G20" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
         <v>49.57372768156608</v>
@@ -2166,10 +2166,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>17.63735199118183</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2202,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.836446385895517</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2330,10 +2330,10 @@
         <v>105.751578713029</v>
       </c>
       <c r="G23" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156608</v>
+        <v>49.5737276815661</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31184619050091</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>70.94773107601874</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>104.9031924866032</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489291</v>
+        <v>1.486173081489292</v>
       </c>
       <c r="U27" t="n">
         <v>23.74331897288762</v>
@@ -2700,7 +2700,7 @@
         <v>3.828163915469617</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024628</v>
+        <v>160.4457310205281</v>
       </c>
     </row>
     <row r="28">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>99.9802699287372</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2913,16 +2913,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489291</v>
+        <v>1.486173081489292</v>
       </c>
       <c r="U30" t="n">
         <v>23.74331897288762</v>
@@ -2931,10 +2931,10 @@
         <v>27.16417039140126</v>
       </c>
       <c r="W30" t="n">
-        <v>53.2198330530106</v>
+        <v>106.6074061707142</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469617</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>9.899535610024628</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.774779986968</v>
+        <v>159.7747799869681</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8930369903135</v>
+        <v>135.8930369903136</v>
       </c>
       <c r="D32" t="n">
-        <v>123.459699251362</v>
+        <v>123.4596992513621</v>
       </c>
       <c r="E32" t="n">
-        <v>157.1664516707708</v>
+        <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491482</v>
+        <v>188.8867892491483</v>
       </c>
       <c r="G32" t="n">
-        <v>204.5257125717832</v>
+        <v>204.5257125717833</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176852</v>
+        <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461076</v>
+        <v>26.69730882461084</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758286</v>
+        <v>13.20453416758295</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008953956</v>
+        <v>8.153421008954041</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178444</v>
+        <v>35.83808110178452</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5673232182867</v>
+        <v>106.5673232182868</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349016</v>
+        <v>123.5840034349017</v>
       </c>
       <c r="X32" t="n">
-        <v>145.4702539038408</v>
+        <v>145.4702539038409</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275846</v>
+        <v>167.9731070275847</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146249666</v>
+        <v>35.46291659578877</v>
       </c>
       <c r="U33" t="n">
-        <v>222.6781784528261</v>
+        <v>22.91560910602338</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>26.33646052453702</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>52.39212318614636</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605292</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160304</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531525</v>
+        <v>21.12558397531534</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457697</v>
+        <v>9.449098059457782</v>
       </c>
       <c r="U34" t="n">
-        <v>74.3440965777003</v>
+        <v>74.34409657770038</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358459</v>
+        <v>30.79655479358468</v>
       </c>
       <c r="W34" t="n">
-        <v>75.99824669847001</v>
+        <v>75.9982466984701</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377216</v>
+        <v>7.606995017377301</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303106</v>
+        <v>2.828812423303191</v>
       </c>
     </row>
     <row r="35">
@@ -3345,19 +3345,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>148.9397469319316</v>
       </c>
       <c r="D36" t="n">
-        <v>121.4165297279295</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>8.878006387710812</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>181.4039254125247</v>
       </c>
     </row>
     <row r="40">
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.14077227717371</v>
+        <v>9.140772277173706</v>
       </c>
       <c r="V41" t="n">
         <v>79.87001439367597</v>
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>99.61991661893308</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>93.04104664791642</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161055</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>25.69481436153555</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>175.0103786975746</v>
       </c>
       <c r="Y45" t="n">
-        <v>21.87770673833352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4805,43 +4805,43 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M8" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
         <v>6.719070557086891</v>
@@ -4869,16 +4869,16 @@
         <v>3.487505264143985</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
@@ -4887,22 +4887,22 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
-        <v>3.295227129213883</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="M9" t="n">
-        <v>6.462484272827225</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="N9" t="n">
-        <v>9.629741416440567</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="O9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="R9" t="n">
         <v>9.565433267111001</v>
@@ -4911,16 +4911,16 @@
         <v>9.565433267111001</v>
       </c>
       <c r="T9" t="n">
+        <v>9.565433267111001</v>
+      </c>
+      <c r="U9" t="n">
+        <v>9.565433267111001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9.565433267111001</v>
+      </c>
+      <c r="W9" t="n">
         <v>6.333867974168094</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3.487505264143985</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3.487505264143985</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.487505264143985</v>
       </c>
       <c r="X9" t="n">
         <v>3.487505264143985</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>619.5945859884708</v>
+        <v>604.0097004220295</v>
       </c>
       <c r="C11" t="n">
-        <v>619.5945859884708</v>
+        <v>430.2145153431296</v>
       </c>
       <c r="D11" t="n">
-        <v>619.5945859884708</v>
+        <v>268.9782572732715</v>
       </c>
       <c r="E11" t="n">
-        <v>619.5945859884708</v>
+        <v>268.9782572732715</v>
       </c>
       <c r="F11" t="n">
-        <v>429.1926331407465</v>
+        <v>268.9782572732715</v>
       </c>
       <c r="G11" t="n">
-        <v>238.790680293022</v>
+        <v>78.57630442554807</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554806</v>
+        <v>78.57630442554807</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L11" t="n">
-        <v>162.1536558828889</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="M11" t="n">
-        <v>243.0155549698362</v>
+        <v>388.3057426376491</v>
       </c>
       <c r="N11" t="n">
-        <v>318.4008885624852</v>
+        <v>567.3787792909338</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485399</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324992</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049695</v>
+        <v>737.0894290049694</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0894290049695</v>
+        <v>737.0894290049694</v>
       </c>
       <c r="T11" t="n">
-        <v>692.3241590587556</v>
+        <v>737.0894290049694</v>
       </c>
       <c r="U11" t="n">
-        <v>619.5945859884708</v>
+        <v>737.0894290049694</v>
       </c>
       <c r="V11" t="n">
-        <v>619.5945859884708</v>
+        <v>604.0097004220295</v>
       </c>
       <c r="W11" t="n">
-        <v>619.5945859884708</v>
+        <v>604.0097004220295</v>
       </c>
       <c r="X11" t="n">
-        <v>619.5945859884708</v>
+        <v>604.0097004220295</v>
       </c>
       <c r="Y11" t="n">
-        <v>619.5945859884708</v>
+        <v>604.0097004220295</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>221.9437510110389</v>
+        <v>198.1075712424062</v>
       </c>
       <c r="C12" t="n">
-        <v>212.479218312758</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="D12" t="n">
-        <v>212.479218312758</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="E12" t="n">
-        <v>212.479218312758</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F12" t="n">
-        <v>212.479218312758</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G12" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H12" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142012</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M12" t="n">
         <v>352.0527264137996</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596542</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596542</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="S12" t="n">
-        <v>556.6509361119298</v>
+        <v>683.6564563764731</v>
       </c>
       <c r="T12" t="n">
-        <v>519.4563306044324</v>
+        <v>646.4618508689757</v>
       </c>
       <c r="U12" t="n">
-        <v>459.779759550068</v>
+        <v>586.7852798146113</v>
       </c>
       <c r="V12" t="n">
-        <v>396.6477830224575</v>
+        <v>523.6533032870008</v>
       </c>
       <c r="W12" t="n">
-        <v>307.1969553215042</v>
+        <v>434.2024755860475</v>
       </c>
       <c r="X12" t="n">
-        <v>267.6367025069559</v>
+        <v>243.8005227383231</v>
       </c>
       <c r="Y12" t="n">
-        <v>221.9437510110389</v>
+        <v>198.1075712424062</v>
       </c>
     </row>
     <row r="13">
@@ -5179,67 +5179,67 @@
         <v>15.07983466553977</v>
       </c>
       <c r="D13" t="n">
-        <v>15.07983466553977</v>
+        <v>47.71579242887335</v>
       </c>
       <c r="E13" t="n">
-        <v>15.07983466553977</v>
+        <v>47.71579242887335</v>
       </c>
       <c r="F13" t="n">
-        <v>15.07983466553977</v>
+        <v>47.71579242887335</v>
       </c>
       <c r="G13" t="n">
-        <v>15.07983466553977</v>
+        <v>47.71579242887335</v>
       </c>
       <c r="H13" t="n">
-        <v>15.07983466553977</v>
+        <v>47.71579242887335</v>
       </c>
       <c r="I13" t="n">
-        <v>15.07983466553977</v>
+        <v>60.87813555312513</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07983466553977</v>
+        <v>118.2077055575824</v>
       </c>
       <c r="K13" t="n">
-        <v>55.88315894241964</v>
+        <v>228.2148067313215</v>
       </c>
       <c r="L13" t="n">
-        <v>200.4196423682597</v>
+        <v>318.8926109685502</v>
       </c>
       <c r="M13" t="n">
-        <v>351.8217271348923</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="N13" t="n">
-        <v>351.8217271348923</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348923</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351831</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426677</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633078</v>
       </c>
       <c r="S13" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015778</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578857</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604133</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064921</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117138</v>
+        <v>98.68003660117132</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099491</v>
+        <v>54.46671210099488</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>503.7528829978797</v>
+        <v>642.4567546088766</v>
       </c>
       <c r="C14" t="n">
-        <v>503.7528829978797</v>
+        <v>468.6615695299766</v>
       </c>
       <c r="D14" t="n">
-        <v>503.7528829978797</v>
+        <v>376.0607112056709</v>
       </c>
       <c r="E14" t="n">
-        <v>313.3509301501554</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="F14" t="n">
         <v>185.6587583579466</v>
@@ -5282,46 +5282,46 @@
         <v>285.139674688828</v>
       </c>
       <c r="L14" t="n">
-        <v>331.8605171695881</v>
+        <v>402.1555774777221</v>
       </c>
       <c r="M14" t="n">
-        <v>412.7224162565353</v>
+        <v>483.0174765646693</v>
       </c>
       <c r="N14" t="n">
-        <v>488.0503093922276</v>
+        <v>558.3453697003616</v>
       </c>
       <c r="O14" t="n">
-        <v>522.2709440848953</v>
+        <v>592.5660043930293</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324991</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9917332769885</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049692</v>
+        <v>737.0894290049694</v>
       </c>
       <c r="S14" t="n">
-        <v>687.2220245550901</v>
+        <v>687.2220245550902</v>
       </c>
       <c r="T14" t="n">
-        <v>687.2220245550901</v>
+        <v>642.4567546088766</v>
       </c>
       <c r="U14" t="n">
-        <v>687.2220245550901</v>
+        <v>642.4567546088766</v>
       </c>
       <c r="V14" t="n">
-        <v>687.2220245550901</v>
+        <v>642.4567546088766</v>
       </c>
       <c r="W14" t="n">
-        <v>687.2220245550901</v>
+        <v>642.4567546088766</v>
       </c>
       <c r="X14" t="n">
-        <v>503.7528829978797</v>
+        <v>642.4567546088766</v>
       </c>
       <c r="Y14" t="n">
-        <v>503.7528829978797</v>
+        <v>642.4567546088766</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.54958997382332</v>
+        <v>269.6256310488109</v>
       </c>
       <c r="C15" t="n">
-        <v>68.08505727554241</v>
+        <v>260.16109835053</v>
       </c>
       <c r="D15" t="n">
-        <v>68.08505727554241</v>
+        <v>99.38098211156174</v>
       </c>
       <c r="E15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I15" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553977</v>
@@ -5376,31 +5376,31 @@
         <v>753.9917332769885</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0528889596541</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R15" t="n">
-        <v>747.0528889596541</v>
+        <v>617.9111264193343</v>
       </c>
       <c r="S15" t="n">
-        <v>556.6509361119297</v>
+        <v>604.3328161497016</v>
       </c>
       <c r="T15" t="n">
-        <v>519.4563306044323</v>
+        <v>567.1382106422042</v>
       </c>
       <c r="U15" t="n">
-        <v>459.7797595500679</v>
+        <v>507.4616395878398</v>
       </c>
       <c r="V15" t="n">
-        <v>396.6477830224574</v>
+        <v>444.3296630602293</v>
       </c>
       <c r="W15" t="n">
-        <v>307.196955321504</v>
+        <v>354.878835359276</v>
       </c>
       <c r="X15" t="n">
-        <v>267.6367025069558</v>
+        <v>315.3185825447278</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.54958997382332</v>
+        <v>269.6256310488109</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07983466553977</v>
+        <v>15.60586471875854</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07983466553977</v>
+        <v>27.18003706804309</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07983466553977</v>
+        <v>59.81599483137667</v>
       </c>
       <c r="E16" t="n">
-        <v>15.07983466553977</v>
+        <v>95.9233965428111</v>
       </c>
       <c r="F16" t="n">
-        <v>53.90900278081474</v>
+        <v>134.7525646580861</v>
       </c>
       <c r="G16" t="n">
-        <v>53.90900278081474</v>
+        <v>144.1055789917423</v>
       </c>
       <c r="H16" t="n">
-        <v>53.90900278081474</v>
+        <v>156.3062068251596</v>
       </c>
       <c r="I16" t="n">
-        <v>53.90900278081474</v>
+        <v>156.3062068251596</v>
       </c>
       <c r="J16" t="n">
-        <v>53.90900278081474</v>
+        <v>156.3062068251596</v>
       </c>
       <c r="K16" t="n">
-        <v>163.9161039545538</v>
+        <v>200.4196423682594</v>
       </c>
       <c r="L16" t="n">
-        <v>308.4525873803938</v>
+        <v>200.4196423682594</v>
       </c>
       <c r="M16" t="n">
-        <v>360.7048354267195</v>
+        <v>351.8217271348921</v>
       </c>
       <c r="N16" t="n">
-        <v>520.716661142668</v>
+        <v>351.8217271348921</v>
       </c>
       <c r="O16" t="n">
-        <v>520.716661142668</v>
+        <v>351.8217271348921</v>
       </c>
       <c r="P16" t="n">
-        <v>520.716661142668</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.716661142668</v>
+        <v>520.7166611426677</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633078</v>
       </c>
       <c r="S16" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015778</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578857</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604133</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064921</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117138</v>
+        <v>98.68003660117132</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099491</v>
+        <v>54.46671210099488</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961948</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040794</v>
+        <v>410.101590504079</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210058</v>
+        <v>369.3697837210054</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718628</v>
+        <v>294.5907522718622</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940557</v>
+        <v>187.7709757940551</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116202</v>
+        <v>65.15430707116214</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993316</v>
+        <v>70.95335735993305</v>
       </c>
       <c r="J17" t="n">
-        <v>107.6509158338098</v>
+        <v>70.95335735993305</v>
       </c>
       <c r="K17" t="n">
-        <v>107.6509158338098</v>
+        <v>257.5663113459877</v>
       </c>
       <c r="L17" t="n">
-        <v>154.3717583145699</v>
+        <v>444.1792653320424</v>
       </c>
       <c r="M17" t="n">
-        <v>235.2336574015171</v>
+        <v>525.0411644189896</v>
       </c>
       <c r="N17" t="n">
-        <v>310.5615505372095</v>
+        <v>600.3690575546819</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7821852298772</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="P17" t="n">
-        <v>344.7821852298772</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="Q17" t="n">
-        <v>531.3951392159319</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="R17" t="n">
-        <v>632.9356035051034</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="S17" t="n">
-        <v>632.9356035051034</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="T17" t="n">
-        <v>707.167575136997</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="U17" t="n">
         <v>753.9917332769885</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879303</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530778</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122037</v>
+        <v>540.8060308122033</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.07983466553977</v>
+        <v>568.1721230522304</v>
       </c>
       <c r="C18" t="n">
-        <v>15.07983466553977</v>
+        <v>378.7598487851941</v>
       </c>
       <c r="D18" t="n">
-        <v>15.07983466553977</v>
+        <v>378.7598487851941</v>
       </c>
       <c r="E18" t="n">
-        <v>15.07983466553977</v>
+        <v>378.7598487851941</v>
       </c>
       <c r="F18" t="n">
-        <v>15.07983466553977</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="G18" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142012</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097942</v>
@@ -5619,25 +5619,25 @@
         <v>753.9917332769884</v>
       </c>
       <c r="S18" t="n">
-        <v>563.589780429264</v>
+        <v>746.7079759791654</v>
       </c>
       <c r="T18" t="n">
-        <v>373.1878275815396</v>
+        <v>746.7079759791654</v>
       </c>
       <c r="U18" t="n">
-        <v>373.1878275815396</v>
+        <v>746.7079759791654</v>
       </c>
       <c r="V18" t="n">
-        <v>373.1878275815396</v>
+        <v>746.7079759791654</v>
       </c>
       <c r="W18" t="n">
-        <v>373.1878275815396</v>
+        <v>746.7079759791654</v>
       </c>
       <c r="X18" t="n">
-        <v>373.1878275815396</v>
+        <v>746.7079759791654</v>
       </c>
       <c r="Y18" t="n">
-        <v>193.6156875924749</v>
+        <v>746.7079759791654</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961945</v>
       </c>
       <c r="C20" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040789</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210053</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718623</v>
+        <v>294.5907522718621</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940551</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116208</v>
@@ -5753,49 +5753,49 @@
         <v>201.6927886515944</v>
       </c>
       <c r="K20" t="n">
-        <v>225.0325002150139</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="L20" t="n">
-        <v>271.753342695774</v>
+        <v>346.5451906122115</v>
       </c>
       <c r="M20" t="n">
-        <v>352.6152417827212</v>
+        <v>533.1581445982662</v>
       </c>
       <c r="N20" t="n">
-        <v>427.9431349184135</v>
+        <v>719.7710985843208</v>
       </c>
       <c r="O20" t="n">
-        <v>462.1637696110812</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="P20" t="n">
-        <v>462.1637696110812</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1637696110812</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002527</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051036</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369971</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="U20" t="n">
         <v>753.9917332769885</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879303</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235036</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X20" t="n">
         <v>626.5008757530777</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122034</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>556.6509361119297</v>
+        <v>365.2722251715443</v>
       </c>
       <c r="C21" t="n">
-        <v>367.2386618448934</v>
+        <v>175.859950904508</v>
       </c>
       <c r="D21" t="n">
-        <v>206.4585456059251</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E21" t="n">
-        <v>32.8953417273396</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F21" t="n">
         <v>15.07983466553977</v>
@@ -5832,7 +5832,7 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142012</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097942</v>
@@ -5850,31 +5850,31 @@
         <v>753.9917332769885</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596541</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0528889596541</v>
+        <v>746.076130866993</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0528889596541</v>
+        <v>555.6741780192687</v>
       </c>
       <c r="T21" t="n">
-        <v>747.0528889596541</v>
+        <v>555.6741780192687</v>
       </c>
       <c r="U21" t="n">
-        <v>747.0528889596541</v>
+        <v>365.2722251715443</v>
       </c>
       <c r="V21" t="n">
-        <v>747.0528889596541</v>
+        <v>365.2722251715443</v>
       </c>
       <c r="W21" t="n">
-        <v>747.0528889596541</v>
+        <v>365.2722251715443</v>
       </c>
       <c r="X21" t="n">
-        <v>747.0528889596541</v>
+        <v>365.2722251715443</v>
       </c>
       <c r="Y21" t="n">
-        <v>556.6509361119297</v>
+        <v>365.2722251715443</v>
       </c>
     </row>
     <row r="22">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961949</v>
+        <v>463.3923242961945</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040794</v>
+        <v>410.1015905040789</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210058</v>
+        <v>369.3697837210053</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718622</v>
+        <v>294.5907522718621</v>
       </c>
       <c r="F23" t="n">
         <v>187.7709757940551</v>
@@ -5981,58 +5981,58 @@
         <v>65.15430707116209</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I23" t="n">
         <v>70.95335735993311</v>
       </c>
       <c r="J23" t="n">
-        <v>257.5663113459879</v>
+        <v>257.5663113459877</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5663113459879</v>
+        <v>257.5663113459877</v>
       </c>
       <c r="L23" t="n">
-        <v>304.287153826748</v>
+        <v>304.2871538267478</v>
       </c>
       <c r="M23" t="n">
-        <v>385.1490529136952</v>
+        <v>385.1490529136951</v>
       </c>
       <c r="N23" t="n">
-        <v>460.4769460493875</v>
+        <v>533.1581445982662</v>
       </c>
       <c r="O23" t="n">
-        <v>494.6975807420552</v>
+        <v>567.3787792909338</v>
       </c>
       <c r="P23" t="n">
-        <v>681.3105347281099</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q23" t="n">
-        <v>681.3105347281099</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879305</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W23" t="n">
-        <v>689.465566023504</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530782</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122039</v>
+        <v>540.8060308122034</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>747.0528889596544</v>
+        <v>491.9254056050028</v>
       </c>
       <c r="C24" t="n">
-        <v>557.6406146926181</v>
+        <v>302.5131313379665</v>
       </c>
       <c r="D24" t="n">
-        <v>396.8604984536498</v>
+        <v>302.5131313379665</v>
       </c>
       <c r="E24" t="n">
-        <v>223.2972945750643</v>
+        <v>302.5131313379665</v>
       </c>
       <c r="F24" t="n">
-        <v>62.86957829230838</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="G24" t="n">
-        <v>62.86957829230838</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="H24" t="n">
-        <v>62.86957829230838</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I24" t="n">
-        <v>62.86957829230838</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142012</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137999</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O24" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596544</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0528889596544</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0528889596544</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="T24" t="n">
-        <v>747.0528889596544</v>
+        <v>563.5897804292641</v>
       </c>
       <c r="U24" t="n">
-        <v>747.0528889596544</v>
+        <v>563.5897804292641</v>
       </c>
       <c r="V24" t="n">
-        <v>747.0528889596544</v>
+        <v>563.5897804292641</v>
       </c>
       <c r="W24" t="n">
-        <v>747.0528889596544</v>
+        <v>563.5897804292641</v>
       </c>
       <c r="X24" t="n">
-        <v>747.0528889596544</v>
+        <v>491.9254056050028</v>
       </c>
       <c r="Y24" t="n">
-        <v>747.0528889596544</v>
+        <v>491.9254056050028</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874106</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942527</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350252</v>
+        <v>597.6637583350255</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471339</v>
+        <v>406.0329511471341</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141566</v>
+        <v>198.6052517141568</v>
       </c>
       <c r="H26" t="n">
         <v>63.71974859845024</v>
@@ -6227,7 +6227,7 @@
         <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528779</v>
+        <v>375.9427824528785</v>
       </c>
       <c r="L26" t="n">
         <v>634.0135279523995</v>
@@ -6251,7 +6251,7 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
         <v>1772.589137514411</v>
@@ -6263,10 +6263,10 @@
         <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.123159715704</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>559.6722937997322</v>
+        <v>520.5070947595916</v>
       </c>
       <c r="C27" t="n">
-        <v>370.2600195326959</v>
+        <v>520.5070947595916</v>
       </c>
       <c r="D27" t="n">
-        <v>209.4799032937276</v>
+        <v>359.7269785206234</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91669941514207</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514207</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="G27" t="n">
         <v>35.91669941514207</v>
@@ -6306,7 +6306,7 @@
         <v>35.91669941514207</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102243</v>
+        <v>73.88002543102242</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593965</v>
@@ -6324,31 +6324,31 @@
         <v>793.1206204512952</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1817761339607</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="R27" t="n">
-        <v>786.1817761339607</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="S27" t="n">
-        <v>786.1817761339607</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="T27" t="n">
-        <v>784.6805912031634</v>
+        <v>791.6194355204979</v>
       </c>
       <c r="U27" t="n">
-        <v>760.6974407254992</v>
+        <v>767.6362850428336</v>
       </c>
       <c r="V27" t="n">
-        <v>733.2588847745889</v>
+        <v>740.1977290919233</v>
       </c>
       <c r="W27" t="n">
-        <v>679.5014776503357</v>
+        <v>686.4403219676701</v>
       </c>
       <c r="X27" t="n">
-        <v>675.6346454124875</v>
+        <v>682.573489729822</v>
       </c>
       <c r="Y27" t="n">
-        <v>665.6351144932707</v>
+        <v>520.5070947595916</v>
       </c>
     </row>
     <row r="28">
@@ -6373,28 +6373,28 @@
         <v>35.91669941514207</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514207</v>
+        <v>80.25283525602211</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514207</v>
+        <v>80.25283525602211</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514207</v>
+        <v>80.25283525602211</v>
       </c>
       <c r="J28" t="n">
-        <v>35.91669941514207</v>
+        <v>80.25283525602211</v>
       </c>
       <c r="K28" t="n">
-        <v>35.91669941514207</v>
+        <v>80.25283525602211</v>
       </c>
       <c r="L28" t="n">
-        <v>35.91669941514207</v>
+        <v>80.25283525602211</v>
       </c>
       <c r="M28" t="n">
-        <v>222.3019056889985</v>
+        <v>80.25283525602211</v>
       </c>
       <c r="N28" t="n">
-        <v>222.3019056889985</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="O28" t="n">
         <v>266.1625141760092</v>
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874104</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942525</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E29" t="n">
-        <v>597.663758335025</v>
+        <v>597.6637583350256</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471336</v>
+        <v>406.0329511471342</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141563</v>
+        <v>198.6052517141569</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859844958</v>
+        <v>63.71974859845022</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589549</v>
+        <v>171.2527996589548</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528783</v>
+        <v>375.9427824528777</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523994</v>
+        <v>634.0135279523987</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581076</v>
+        <v>926.2253300581069</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.903126212561</v>
+        <v>1212.90312621256</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.882514315173</v>
+        <v>1654.882514315172</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.417797666886</v>
+        <v>1777.417797666885</v>
       </c>
       <c r="R29" t="n">
-        <v>1795.834970757104</v>
+        <v>1795.834970757103</v>
       </c>
       <c r="S29" t="n">
         <v>1781.660986883924</v>
@@ -6494,7 +6494,7 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
         <v>1627.073153621684</v>
@@ -6503,7 +6503,7 @@
         <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y29" t="n">
         <v>1183.123159715704</v>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>487.0992615663357</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="C30" t="n">
-        <v>297.6869872992994</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="D30" t="n">
-        <v>136.9068710603312</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="E30" t="n">
         <v>35.91669941514207</v>
@@ -6543,7 +6543,7 @@
         <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102243</v>
+        <v>73.88002543102242</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593965</v>
@@ -6561,31 +6561,31 @@
         <v>793.1206204512952</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1817761339607</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="R30" t="n">
-        <v>786.1817761339607</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="S30" t="n">
-        <v>786.1817761339607</v>
+        <v>599.594568612907</v>
       </c>
       <c r="T30" t="n">
-        <v>784.6805912031634</v>
+        <v>598.0933836821097</v>
       </c>
       <c r="U30" t="n">
-        <v>760.6974407254992</v>
+        <v>574.1102332044454</v>
       </c>
       <c r="V30" t="n">
-        <v>733.2588847745889</v>
+        <v>546.6716772535351</v>
       </c>
       <c r="W30" t="n">
-        <v>679.5014776503357</v>
+        <v>438.987428596248</v>
       </c>
       <c r="X30" t="n">
-        <v>675.6346454124875</v>
+        <v>219.4794342129444</v>
       </c>
       <c r="Y30" t="n">
-        <v>665.6351144932707</v>
+        <v>209.4799032937276</v>
       </c>
     </row>
     <row r="31">
@@ -6604,43 +6604,43 @@
         <v>35.91669941514207</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514207</v>
+        <v>71.16756695283675</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91669941514207</v>
+        <v>71.16756695283675</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514207</v>
+        <v>71.16756695283675</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514207</v>
+        <v>71.16756695283675</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91669941514207</v>
+        <v>71.16756695283675</v>
       </c>
       <c r="J31" t="n">
-        <v>35.91669941514207</v>
+        <v>71.16756695283675</v>
       </c>
       <c r="K31" t="n">
-        <v>81.96246484036399</v>
+        <v>71.16756695283675</v>
       </c>
       <c r="L31" t="n">
-        <v>81.96246484036399</v>
+        <v>71.16756695283675</v>
       </c>
       <c r="M31" t="n">
-        <v>81.96246484036399</v>
+        <v>71.16756695283675</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96246484036399</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="O31" t="n">
-        <v>256.2082727013259</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="P31" t="n">
-        <v>256.2082727013259</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.2082727013259</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R31" t="n">
         <v>266.1625141760092</v>
@@ -6677,40 +6677,40 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806687</v>
+        <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.817527660101</v>
+        <v>752.8175276601005</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734638</v>
+        <v>594.0635360734632</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581624</v>
+        <v>403.2687994581619</v>
       </c>
       <c r="G32" t="n">
         <v>196.6771705977754</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465893</v>
+        <v>62.62773805465902</v>
       </c>
       <c r="I32" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559495</v>
+        <v>171.8162924559494</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180682</v>
+        <v>357.4097545154549</v>
       </c>
       <c r="L32" t="n">
-        <v>636.215886285785</v>
+        <v>616.2999327831716</v>
       </c>
       <c r="M32" t="n">
-        <v>929.247121159689</v>
+        <v>909.3311676570754</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.744350082338</v>
+        <v>1196.828396579724</v>
       </c>
       <c r="O32" t="n">
         <v>1443.218367059349</v>
@@ -6722,7 +6722,7 @@
         <v>1763.801366338636</v>
       </c>
       <c r="R32" t="n">
-        <v>1783.03797219705</v>
+        <v>1783.037972197049</v>
       </c>
       <c r="S32" t="n">
         <v>1769.700058896461</v>
@@ -6737,7 +6737,7 @@
         <v>1617.62043735199</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.78811065007</v>
+        <v>1492.788110650069</v>
       </c>
       <c r="X32" t="n">
         <v>1345.848460242149</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.660759443941</v>
+        <v>209.2239633225265</v>
       </c>
       <c r="C33" t="n">
-        <v>35.660759443941</v>
+        <v>209.2239633225265</v>
       </c>
       <c r="D33" t="n">
-        <v>35.660759443941</v>
+        <v>209.2239633225265</v>
       </c>
       <c r="E33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="F33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="G33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="H33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="I33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="K33" t="n">
         <v>73.62408545982134</v>
@@ -6798,31 +6798,31 @@
         <v>792.8646804800941</v>
       </c>
       <c r="Q33" t="n">
-        <v>785.9258361627597</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="R33" t="n">
-        <v>785.9258361627597</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="S33" t="n">
-        <v>785.9258361627597</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="T33" t="n">
-        <v>785.2607218045526</v>
+        <v>757.04355260556</v>
       </c>
       <c r="U33" t="n">
-        <v>560.3332688219</v>
+        <v>733.8964727004858</v>
       </c>
       <c r="V33" t="n">
-        <v>317.2535507255341</v>
+        <v>707.2939873221655</v>
       </c>
       <c r="W33" t="n">
-        <v>47.85498145582544</v>
+        <v>654.3726507705026</v>
       </c>
       <c r="X33" t="n">
-        <v>44.82421979056757</v>
+        <v>434.8646563871989</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.660759443941</v>
+        <v>209.2239633225265</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.98934377257925</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="C34" t="n">
-        <v>71.98934377257925</v>
+        <v>83.03748606864494</v>
       </c>
       <c r="D34" t="n">
-        <v>71.98934377257925</v>
+        <v>151.4759981073979</v>
       </c>
       <c r="E34" t="n">
-        <v>71.98934377257925</v>
+        <v>151.4759981073979</v>
       </c>
       <c r="F34" t="n">
-        <v>71.98934377257925</v>
+        <v>151.4759981073979</v>
       </c>
       <c r="G34" t="n">
-        <v>71.98934377257925</v>
+        <v>151.4759981073979</v>
       </c>
       <c r="H34" t="n">
-        <v>117.9570585171285</v>
+        <v>151.4759981073979</v>
       </c>
       <c r="I34" t="n">
-        <v>166.9219559167998</v>
+        <v>200.4408955070691</v>
       </c>
       <c r="J34" t="n">
-        <v>260.0540801966766</v>
+        <v>200.4408955070691</v>
       </c>
       <c r="K34" t="n">
-        <v>260.0540801966766</v>
+        <v>200.4408955070691</v>
       </c>
       <c r="L34" t="n">
-        <v>260.0540801966766</v>
+        <v>200.4408955070691</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0540801966766</v>
+        <v>200.4408955070691</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966766</v>
+        <v>200.4408955070691</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966766</v>
+        <v>200.4408955070691</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966766</v>
+        <v>200.4408955070691</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966766</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966766</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842369</v>
+        <v>238.7151064842374</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898352</v>
+        <v>229.1705629898356</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416531</v>
+        <v>154.0755159416534</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370222</v>
+        <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099183</v>
+        <v>46.20197908099199</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010575</v>
+        <v>38.51814573010583</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361097</v>
+        <v>623.0190675361094</v>
       </c>
       <c r="C35" t="n">
-        <v>544.083381551352</v>
+        <v>544.0833815513517</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756364</v>
+        <v>477.7066225756362</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338511</v>
+        <v>377.2826389338509</v>
       </c>
       <c r="F35" t="n">
         <v>244.8179102634022</v>
@@ -6932,55 +6932,55 @@
         <v>20.8368647496023</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998704</v>
+        <v>51.57576979998703</v>
       </c>
       <c r="J35" t="n">
-        <v>244.9005435987449</v>
+        <v>51.57576979998703</v>
       </c>
       <c r="K35" t="n">
-        <v>502.7567448750734</v>
+        <v>309.4319710763154</v>
       </c>
       <c r="L35" t="n">
-        <v>549.4775873558335</v>
+        <v>567.2881723526439</v>
       </c>
       <c r="M35" t="n">
-        <v>630.3394864427808</v>
+        <v>825.1443736289723</v>
       </c>
       <c r="N35" t="n">
-        <v>705.6673795784731</v>
+        <v>900.4722667646646</v>
       </c>
       <c r="O35" t="n">
-        <v>739.8880142711407</v>
+        <v>934.6929014573323</v>
       </c>
       <c r="P35" t="n">
-        <v>739.8880142711407</v>
+        <v>934.6929014573323</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902422</v>
+        <v>934.6929014573323</v>
       </c>
       <c r="R35" t="n">
-        <v>926.959591035405</v>
+        <v>997.7464855192725</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962473</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U35" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984142</v>
+        <v>992.529484598414</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413451</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782772</v>
+        <v>837.417523378277</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447608</v>
+        <v>726.0777262447606</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>332.8920983377795</v>
+        <v>534.9610676893896</v>
       </c>
       <c r="C36" t="n">
-        <v>143.4798240707432</v>
+        <v>384.5168788692566</v>
       </c>
       <c r="D36" t="n">
-        <v>20.8368647496023</v>
+        <v>384.5168788692566</v>
       </c>
       <c r="E36" t="n">
-        <v>20.8368647496023</v>
+        <v>384.5168788692566</v>
       </c>
       <c r="F36" t="n">
-        <v>20.8368647496023</v>
+        <v>224.0891625865007</v>
       </c>
       <c r="G36" t="n">
-        <v>20.8368647496023</v>
+        <v>73.84208735960493</v>
       </c>
       <c r="H36" t="n">
-        <v>20.8368647496023</v>
+        <v>73.84208735960493</v>
       </c>
       <c r="I36" t="n">
-        <v>20.8368647496023</v>
+        <v>73.84208735960493</v>
       </c>
       <c r="J36" t="n">
         <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548265</v>
+        <v>58.80019076548264</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938567</v>
@@ -7050,16 +7050,16 @@
         <v>778.0407857857555</v>
       </c>
       <c r="V36" t="n">
-        <v>778.0407857857555</v>
+        <v>534.9610676893896</v>
       </c>
       <c r="W36" t="n">
-        <v>778.0407857857555</v>
+        <v>534.9610676893896</v>
       </c>
       <c r="X36" t="n">
-        <v>558.5327914024518</v>
+        <v>534.9610676893896</v>
       </c>
       <c r="Y36" t="n">
-        <v>332.8920983377795</v>
+        <v>534.9610676893896</v>
       </c>
     </row>
     <row r="37">
@@ -7084,10 +7084,10 @@
         <v>20.8368647496023</v>
       </c>
       <c r="G37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="H37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="I37" t="n">
         <v>56.03780166411087</v>
@@ -7126,10 +7126,10 @@
         <v>56.03780166411087</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W37" t="n">
         <v>20.8368647496023</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361102</v>
+        <v>623.01906753611</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513525</v>
+        <v>544.0833815513523</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756368</v>
+        <v>477.7066225756365</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338515</v>
+        <v>377.2826389338512</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634019</v>
       </c>
       <c r="G38" t="n">
         <v>96.55628934786678</v>
@@ -7169,55 +7169,55 @@
         <v>20.8368647496023</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998704</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J38" t="n">
-        <v>244.9005435987449</v>
+        <v>162.1847831529699</v>
       </c>
       <c r="K38" t="n">
-        <v>432.8985180875167</v>
+        <v>162.1847831529699</v>
       </c>
       <c r="L38" t="n">
-        <v>479.6193605682768</v>
+        <v>420.0409844292983</v>
       </c>
       <c r="M38" t="n">
-        <v>560.481259655224</v>
+        <v>677.8971857056267</v>
       </c>
       <c r="N38" t="n">
-        <v>635.8091527909163</v>
+        <v>753.225078841319</v>
       </c>
       <c r="O38" t="n">
-        <v>670.029787483584</v>
+        <v>787.4457135339867</v>
       </c>
       <c r="P38" t="n">
-        <v>670.029787483584</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902422</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="R38" t="n">
-        <v>926.959591035405</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962473</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984147</v>
+        <v>992.5294845984145</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413458</v>
+        <v>926.0271658413455</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782777</v>
+        <v>837.4175233782775</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447614</v>
+        <v>726.0777262447612</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>379.9969384755167</v>
+        <v>355.1801848671561</v>
       </c>
       <c r="C39" t="n">
-        <v>190.5846642084805</v>
+        <v>355.1801848671561</v>
       </c>
       <c r="D39" t="n">
-        <v>29.80454796951221</v>
+        <v>194.4000686281878</v>
       </c>
       <c r="E39" t="n">
         <v>20.8368647496023</v>
@@ -7254,7 +7254,7 @@
         <v>20.8368647496023</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548265</v>
+        <v>58.80019076548264</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938567</v>
@@ -7284,19 +7284,19 @@
         <v>778.0407857857555</v>
       </c>
       <c r="U39" t="n">
-        <v>778.0407857857555</v>
+        <v>538.4164731626356</v>
       </c>
       <c r="V39" t="n">
-        <v>778.0407857857555</v>
+        <v>538.4164731626356</v>
       </c>
       <c r="W39" t="n">
-        <v>778.0407857857555</v>
+        <v>538.4164731626356</v>
       </c>
       <c r="X39" t="n">
-        <v>558.5327914024518</v>
+        <v>538.4164731626356</v>
       </c>
       <c r="Y39" t="n">
-        <v>558.5327914024518</v>
+        <v>355.1801848671561</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="C40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="D40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="E40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="F40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="G40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="H40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="I40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="J40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="K40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="L40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="M40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N40" t="n">
         <v>56.03780166411087</v>
@@ -7363,10 +7363,10 @@
         <v>56.03780166411087</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W40" t="n">
         <v>20.8368647496023</v>
@@ -7375,7 +7375,7 @@
         <v>20.8368647496023</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
     </row>
     <row r="41">
@@ -7412,28 +7412,28 @@
         <v>190.6518442323785</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308618</v>
+        <v>190.6518442323785</v>
       </c>
       <c r="L41" t="n">
-        <v>469.3124380116219</v>
+        <v>237.3726867131386</v>
       </c>
       <c r="M41" t="n">
-        <v>550.1743370985691</v>
+        <v>556.8342573234071</v>
       </c>
       <c r="N41" t="n">
-        <v>679.6515597895268</v>
+        <v>870.7618219824207</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055157</v>
+        <v>1143.58212819841</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901259</v>
+        <v>1189.488331811717</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1339.27338366799</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.582478352311</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="S41" t="n">
         <v>1384.940325262768</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>128.6921538869681</v>
+        <v>295.6100345625065</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06597548400537</v>
+        <v>295.6100345625065</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06597548400537</v>
+        <v>295.6100345625065</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400537</v>
+        <v>122.0468306839209</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400537</v>
+        <v>122.0468306839209</v>
       </c>
       <c r="G42" t="n">
         <v>28.06597548400537</v>
@@ -7518,22 +7518,22 @@
         <v>778.3310522028241</v>
       </c>
       <c r="T42" t="n">
-        <v>778.3310522028241</v>
+        <v>561.1887051265713</v>
       </c>
       <c r="U42" t="n">
-        <v>778.3310522028241</v>
+        <v>321.5643925034515</v>
       </c>
       <c r="V42" t="n">
-        <v>778.3310522028241</v>
+        <v>321.5643925034515</v>
       </c>
       <c r="W42" t="n">
-        <v>752.3766942618792</v>
+        <v>295.6100345625065</v>
       </c>
       <c r="X42" t="n">
-        <v>532.8686998785755</v>
+        <v>295.6100345625065</v>
       </c>
       <c r="Y42" t="n">
-        <v>307.2280068139032</v>
+        <v>295.6100345625065</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400537</v>
+        <v>70.5951975904611</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400537</v>
+        <v>70.5951975904611</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400537</v>
+        <v>70.5951975904611</v>
       </c>
       <c r="E43" t="n">
-        <v>126.4062672072239</v>
+        <v>70.5951975904611</v>
       </c>
       <c r="F43" t="n">
-        <v>126.4062672072239</v>
+        <v>70.5951975904611</v>
       </c>
       <c r="G43" t="n">
-        <v>126.4062672072239</v>
+        <v>70.5951975904611</v>
       </c>
       <c r="H43" t="n">
-        <v>126.4062672072239</v>
+        <v>70.5951975904611</v>
       </c>
       <c r="I43" t="n">
-        <v>126.4062672072239</v>
+        <v>130.133623560695</v>
       </c>
       <c r="J43" t="n">
-        <v>126.4062672072239</v>
+        <v>130.133623560695</v>
       </c>
       <c r="K43" t="n">
-        <v>126.4062672072239</v>
+        <v>130.133623560695</v>
       </c>
       <c r="L43" t="n">
         <v>130.133623560695</v>
@@ -7609,10 +7609,10 @@
         <v>28.06597548400537</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400537</v>
+        <v>46.96538615316655</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400537</v>
+        <v>70.5951975904611</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.426354275317</v>
+        <v>818.4263542753167</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564252</v>
+        <v>708.127638956425</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465755</v>
+        <v>610.3878506465753</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706559</v>
+        <v>478.6008376706556</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660726</v>
+        <v>314.7730796660723</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J44" t="n">
         <v>190.6518442323785</v>
@@ -7652,28 +7652,28 @@
         <v>422.5915955308618</v>
       </c>
       <c r="L44" t="n">
-        <v>523.4617675668871</v>
+        <v>707.9121095349432</v>
       </c>
       <c r="M44" t="n">
-        <v>842.9233381771558</v>
+        <v>1027.373680145212</v>
       </c>
       <c r="N44" t="n">
-        <v>918.2512313128481</v>
+        <v>1160.268299146091</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4718660055157</v>
+        <v>1194.488933838759</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.130484901259</v>
+        <v>1194.488933838759</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757532</v>
+        <v>1344.273985695032</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.582478352311</v>
+        <v>1389.940927289811</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262768</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="T44" t="n">
         <v>1403.298774200268</v>
@@ -7685,13 +7685,13 @@
         <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582954</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181021</v>
+        <v>952.8480423181019</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.06597548400537</v>
+        <v>339.0931669498694</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06597548400537</v>
+        <v>339.0931669498694</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400537</v>
+        <v>178.3130507109012</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400537</v>
+        <v>178.3130507109012</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400537</v>
+        <v>178.3130507109012</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K45" t="n">
         <v>66.02930149988572</v>
@@ -7746,31 +7746,31 @@
         <v>785.2698965201586</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.3310522028241</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="R45" t="n">
-        <v>778.3310522028241</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="S45" t="n">
-        <v>778.3310522028241</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="T45" t="n">
-        <v>778.3310522028241</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="U45" t="n">
-        <v>538.7067395797043</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="V45" t="n">
-        <v>295.6270214833384</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="W45" t="n">
-        <v>269.6726635423934</v>
+        <v>515.8713272504499</v>
       </c>
       <c r="X45" t="n">
-        <v>50.16466915908973</v>
+        <v>339.0931669498694</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.06597548400537</v>
+        <v>339.0931669498694</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400537</v>
+        <v>90.82489554900823</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400537</v>
+        <v>90.82489554900823</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400537</v>
+        <v>90.82489554900823</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400537</v>
+        <v>90.82489554900823</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400537</v>
+        <v>90.82489554900823</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400537</v>
+        <v>90.82489554900823</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400537</v>
+        <v>107.541887302391</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400537</v>
+        <v>107.541887302391</v>
       </c>
       <c r="J46" t="n">
-        <v>130.133623560695</v>
+        <v>107.541887302391</v>
       </c>
       <c r="K46" t="n">
-        <v>130.133623560695</v>
+        <v>107.541887302391</v>
       </c>
       <c r="L46" t="n">
-        <v>130.133623560695</v>
+        <v>107.541887302391</v>
       </c>
       <c r="M46" t="n">
-        <v>130.133623560695</v>
+        <v>107.541887302391</v>
       </c>
       <c r="N46" t="n">
-        <v>130.133623560695</v>
+        <v>107.541887302391</v>
       </c>
       <c r="O46" t="n">
-        <v>130.133623560695</v>
+        <v>107.541887302391</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>107.541887302391</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.133623560695</v>
+        <v>107.541887302391</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>107.541887302391</v>
       </c>
       <c r="S46" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="T46" t="n">
         <v>130.133623560695</v>
@@ -7843,13 +7843,13 @@
         <v>77.86490262931778</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
   </sheetData>
@@ -8535,7 +8535,7 @@
         <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>172.1063303597423</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
         <v>176.6027710248758</v>
@@ -8544,10 +8544,10 @@
         <v>163.4361383816801</v>
       </c>
       <c r="O9" t="n">
-        <v>177.1666678622357</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.5187640737787</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9018,7 +9018,7 @@
         <v>292.1370682466383</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913207</v>
+        <v>255.2227828913208</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9723,10 +9723,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.7768813100002</v>
+        <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23258,22 +23258,22 @@
         <v>195.9389762247655</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>193.3306479085683</v>
       </c>
       <c r="F11" t="n">
-        <v>36.5530521676985</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033356</v>
+        <v>52.19197549033353</v>
       </c>
       <c r="H11" t="n">
-        <v>10.26090234668353</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538035</v>
+        <v>49.36873040538032</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675141</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958189</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>10.98258815897373</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
         <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653821</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="12">
@@ -23495,16 +23495,16 @@
         <v>195.9389762247655</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>67.94904574809689</v>
       </c>
       <c r="E14" t="n">
-        <v>4.832714589321199</v>
+        <v>4.832714589321171</v>
       </c>
       <c r="F14" t="n">
-        <v>98.63573541265883</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
         <v>240.6899088095807</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240826</v>
+        <v>62.86150506240821</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675144</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958192</v>
+        <v>72.00227733958189</v>
       </c>
       <c r="V14" t="n">
         <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726991</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1373032653821</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1269384.340060765</v>
+        <v>1269384.340060766</v>
       </c>
     </row>
     <row r="6">
@@ -26317,13 +26317,13 @@
         <v>110241.4993970575</v>
       </c>
       <c r="D2" t="n">
-        <v>110305.1644648938</v>
+        <v>110305.1644648937</v>
       </c>
       <c r="E2" t="n">
-        <v>94966.9285936418</v>
+        <v>94966.92859364186</v>
       </c>
       <c r="F2" t="n">
-        <v>94966.92859364182</v>
+        <v>94966.92859364185</v>
       </c>
       <c r="G2" t="n">
         <v>110464.818607317</v>
@@ -26335,25 +26335,25 @@
         <v>110464.818607317</v>
       </c>
       <c r="J2" t="n">
-        <v>110464.8186073171</v>
+        <v>110464.818607317</v>
       </c>
       <c r="K2" t="n">
         <v>110464.8186073171</v>
       </c>
       <c r="L2" t="n">
-        <v>110464.818607317</v>
+        <v>110464.8186073171</v>
       </c>
       <c r="M2" t="n">
-        <v>110464.818607317</v>
+        <v>110464.8186073169</v>
       </c>
       <c r="N2" t="n">
-        <v>110464.818607317</v>
+        <v>110464.8186073169</v>
       </c>
       <c r="O2" t="n">
         <v>110464.818607317</v>
       </c>
       <c r="P2" t="n">
-        <v>110464.818607317</v>
+        <v>110464.8186073171</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26372,16 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787142</v>
+        <v>279126.1151787141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913337</v>
+        <v>95439.52541913325</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262482</v>
+        <v>96101.69331262464</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232268</v>
+        <v>46197.36629232284</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924373</v>
+        <v>72254.91485924376</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>302020.8786145413</v>
       </c>
       <c r="G4" t="n">
-        <v>372628.7466577632</v>
+        <v>372628.7466577631</v>
       </c>
       <c r="H4" t="n">
         <v>372628.7466577631</v>
@@ -26448,16 +26448,16 @@
         <v>373421.7396465039</v>
       </c>
       <c r="M4" t="n">
-        <v>372611.8022731855</v>
+        <v>372611.8022731853</v>
       </c>
       <c r="N4" t="n">
-        <v>372611.8022731855</v>
+        <v>372611.8022731853</v>
       </c>
       <c r="O4" t="n">
         <v>372998.8649369031</v>
       </c>
       <c r="P4" t="n">
-        <v>372998.8649369031</v>
+        <v>372998.864936903</v>
       </c>
     </row>
     <row r="5">
@@ -26494,10 +26494,10 @@
         <v>47449.67722016351</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.67722016351</v>
+        <v>47449.6772201635</v>
       </c>
       <c r="L5" t="n">
-        <v>47324.74758284811</v>
+        <v>47324.7475828481</v>
       </c>
       <c r="M5" t="n">
         <v>40913.2955986873</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-337754.7267697777</v>
+        <v>-337759.1931539829</v>
       </c>
       <c r="C6" t="n">
-        <v>-337754.7267697777</v>
+        <v>-337759.1931539829</v>
       </c>
       <c r="D6" t="n">
-        <v>-338743.3463074479</v>
+        <v>-338746.5393902963</v>
       </c>
       <c r="E6" t="n">
-        <v>-514823.0221373614</v>
+        <v>-515132.9799376348</v>
       </c>
       <c r="F6" t="n">
-        <v>-235696.9069586472</v>
+        <v>-236006.8647589207</v>
       </c>
       <c r="G6" t="n">
-        <v>-396275.7922354038</v>
+        <v>-396275.7922354036</v>
       </c>
       <c r="H6" t="n">
-        <v>-300836.2668162703</v>
+        <v>-300836.2668162704</v>
       </c>
       <c r="I6" t="n">
         <v>-300836.2668162703</v>
@@ -26546,22 +26546,22 @@
         <v>-453917.6712336083</v>
       </c>
       <c r="K6" t="n">
-        <v>-310421.388226729</v>
+        <v>-310421.3882267289</v>
       </c>
       <c r="L6" t="n">
-        <v>-406383.3619346598</v>
+        <v>-406383.3619346595</v>
       </c>
       <c r="M6" t="n">
         <v>-349257.6455568785</v>
       </c>
       <c r="N6" t="n">
-        <v>-303060.2792645558</v>
+        <v>-303060.2792645557</v>
       </c>
       <c r="O6" t="n">
-        <v>-378586.089017703</v>
+        <v>-378586.0890177031</v>
       </c>
       <c r="P6" t="n">
-        <v>-306331.1741584593</v>
+        <v>-306331.1741584592</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H2" t="n">
         <v>297.4476709269845</v>
@@ -26713,7 +26713,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="M2" t="n">
         <v>272.0591682562687</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="F3" t="n">
         <v>101.1713840758394</v>
@@ -26796,7 +26796,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F4" t="n">
         <v>188.4979333192471</v>
@@ -26808,28 +26808,28 @@
         <v>188.4979333192471</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="J4" t="n">
         <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892759</v>
+        <v>448.9587426892758</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492624</v>
+        <v>445.7594930492623</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="O4" t="n">
         <v>350.8246935500671</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.824693550067</v>
       </c>
     </row>
   </sheetData>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739167</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008437</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.127116640781</v>
+        <v>120.1271166407808</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540335</v>
+        <v>57.74670786540355</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003833</v>
+        <v>90.36388418003838</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739167</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008437</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27877,7 +27877,7 @@
         <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>58.59330638195257</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
         <v>16.99055923469257</v>
@@ -27916,7 +27916,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X8" t="n">
-        <v>359.7827142947061</v>
+        <v>359.9126297478971</v>
       </c>
       <c r="Y8" t="n">
         <v>382.2855674184499</v>
@@ -27941,7 +27941,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>155.6241894799149</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
         <v>148.9622183950918</v>
@@ -27953,7 +27953,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>69.83566399273495</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,28 +27974,28 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>145.0317031582867</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>212.6488107764739</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>234.4244871192585</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>266.7045835770116</v>
+        <v>263.5053339369981</v>
       </c>
       <c r="X9" t="n">
-        <v>217.3129144394706</v>
+        <v>214.4950153565467</v>
       </c>
       <c r="Y9" t="n">
         <v>223.3842861340256</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530678</v>
+        <v>76.78161896459407</v>
       </c>
       <c r="K11" t="n">
-        <v>6.727192146300965</v>
+        <v>6.727192146301</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05802066359252933</v>
+        <v>104.7930742601943</v>
       </c>
       <c r="O11" t="n">
         <v>153.9316356498858</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1482641530678</v>
+        <v>15.0919723510888</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530678</v>
+        <v>89.711737037422</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="12">
@@ -28169,28 +28169,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>5.794385047783351</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161055</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>3.092858000757157</v>
+        <v>121.9588671884941</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>28.81498112022348</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="13">
@@ -28251,7 +28251,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -28266,55 +28266,55 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I13" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J13" t="n">
-        <v>120.239607582909</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K13" t="n">
-        <v>108.2454592067454</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1482641530678</v>
+        <v>123.7455579019453</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O13" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777681</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530678</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="14">
@@ -28324,37 +28324,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>71.0051114223576</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>160.7168484597795</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530678</v>
+        <v>89.711737037422</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="15">
@@ -28406,13 +28406,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>88.36943586823794</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28427,7 +28427,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161055</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.09285800075719</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y15" t="n">
-        <v>35.19804472622451</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="16">
@@ -28482,25 +28482,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I16" t="n">
         <v>164.852968067965</v>
@@ -28509,49 +28509,49 @@
         <v>120.239607582909</v>
       </c>
       <c r="K16" t="n">
-        <v>178.1482641530678</v>
+        <v>111.5890059403009</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1482641530678</v>
+        <v>32.1518162481789</v>
       </c>
       <c r="M16" t="n">
-        <v>77.99691393053551</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="N16" t="n">
-        <v>178.1482641530678</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O16" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777681</v>
       </c>
       <c r="P16" t="n">
-        <v>58.47859890024888</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="17">
@@ -28561,37 +28561,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>113.8498598472978</v>
+        <v>76.78161896459407</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300993</v>
+        <v>195.2251254655481</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28600,37 +28600,37 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>73.31099281782573</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108879</v>
+        <v>15.0919723510888</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2096703566692</v>
+        <v>89.711737037422</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269845</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S17" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269845</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28652,10 +28652,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>125.7355245857741</v>
@@ -28664,7 +28664,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,16 +28685,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161055</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>3.09285800075719</v>
+        <v>184.3798715951596</v>
       </c>
       <c r="T18" t="n">
-        <v>26.47299028624315</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280694968886</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>45.6078675448515</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28749,7 +28749,7 @@
         <v>67.02998013918999</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817889</v>
+        <v>32.1518162481789</v>
       </c>
       <c r="M19" t="n">
         <v>25.21686539889346</v>
@@ -28758,7 +28758,7 @@
         <v>16.52015736928136</v>
       </c>
       <c r="O19" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777681</v>
       </c>
       <c r="P19" t="n">
         <v>58.47859890024888</v>
@@ -28825,16 +28825,16 @@
         <v>265.2795522838412</v>
       </c>
       <c r="K20" t="n">
-        <v>30.30265837197721</v>
+        <v>6.727192146300993</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>99.12278735339089</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28846,16 +28846,16 @@
         <v>89.71173703742198</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4476709269845</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269845</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269845</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269845</v>
@@ -28886,10 +28886,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>141.1860871287465</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7446044746268</v>
@@ -28922,19 +28922,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161051</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>126.8833544031821</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757188</v>
       </c>
       <c r="T21" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764148</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.88635281477849</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -29059,10 +29059,10 @@
         <v>297.4476709269845</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2795522838413</v>
+        <v>265.2795522838412</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300993</v>
+        <v>6.727192146301</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,19 +29071,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>73.41535206957454</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>203.589905670336</v>
+        <v>203.5899056703359</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742198</v>
+        <v>89.711737037422</v>
       </c>
       <c r="R23" t="n">
-        <v>268.2968974519415</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S23" t="n">
         <v>227.5169945584482</v>
@@ -29120,10 +29120,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29132,13 +29132,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>5.163324193401699</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161055</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890777</v>
@@ -29168,7 +29168,7 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624315</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280694968886</v>
@@ -29180,7 +29180,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>146.3651833634519</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29223,7 +29223,7 @@
         <v>67.02998013918999</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817889</v>
+        <v>32.1518162481789</v>
       </c>
       <c r="M25" t="n">
         <v>25.21686539889346</v>
@@ -29232,7 +29232,7 @@
         <v>16.52015736928136</v>
       </c>
       <c r="O25" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777681</v>
       </c>
       <c r="P25" t="n">
         <v>58.47859890024888</v>
@@ -29299,10 +29299,10 @@
         <v>213.484750524001</v>
       </c>
       <c r="K26" t="n">
+        <v>213.4847505240016</v>
+      </c>
+      <c r="L26" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="L26" t="n">
-        <v>213.4847505240015</v>
       </c>
       <c r="M26" t="n">
         <v>213.484750524001</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>71.84730191106256</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29366,7 +29366,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>125.7355245857741</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161055</v>
       </c>
       <c r="R27" t="n">
         <v>134.7198007890777</v>
@@ -29420,7 +29420,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.484750524001</v>
+        <v>62.93855511349756</v>
       </c>
     </row>
     <row r="28">
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7007749271525</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H28" t="n">
         <v>165.8243976546666</v>
@@ -29460,16 +29460,16 @@
         <v>67.02998013918999</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817889</v>
+        <v>32.1518162481789</v>
       </c>
       <c r="M28" t="n">
-        <v>213.484750524001</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928136</v>
+        <v>204.3077118339147</v>
       </c>
       <c r="O28" t="n">
-        <v>81.78252893415119</v>
+        <v>37.47888399777681</v>
       </c>
       <c r="P28" t="n">
         <v>58.47859890024888</v>
@@ -29588,16 +29588,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>71.84730191106247</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29633,13 +29633,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161055</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>213.484750524001</v>
@@ -29651,10 +29651,10 @@
         <v>213.484750524001</v>
       </c>
       <c r="W30" t="n">
-        <v>213.484750524001</v>
+        <v>160.0971774062974</v>
       </c>
       <c r="X30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>213.484750524001</v>
@@ -29676,7 +29676,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>177.2830781189873</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -29694,19 +29694,19 @@
         <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
-        <v>113.5408543060808</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817889</v>
+        <v>32.1518162481789</v>
       </c>
       <c r="M31" t="n">
         <v>25.21686539889346</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928136</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O31" t="n">
-        <v>213.484750524001</v>
+        <v>37.47888399777681</v>
       </c>
       <c r="P31" t="n">
         <v>58.47859890024888</v>
@@ -29715,7 +29715,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R31" t="n">
-        <v>213.484750524001</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
         <v>213.484750524001</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908653</v>
+        <v>194.1953356407511</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="O32" t="n">
-        <v>194.1953356407505</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="33">
@@ -29834,7 +29834,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161055</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890777</v>
@@ -29879,22 +29879,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908653</v>
+        <v>179.5080070097015</v>
       </c>
       <c r="U33" t="n">
-        <v>14.54989104406252</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908653</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,13 +29904,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>214.3124603908653</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29922,19 +29922,19 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
-        <v>212.2564327501709</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="J34" t="n">
-        <v>214.3124603908653</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
         <v>67.02998013918999</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817889</v>
+        <v>32.1518162481789</v>
       </c>
       <c r="M34" t="n">
         <v>25.21686539889346</v>
@@ -29943,37 +29943,37 @@
         <v>16.52015736928136</v>
       </c>
       <c r="O34" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777681</v>
       </c>
       <c r="P34" t="n">
         <v>58.47859890024888</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2169859636892</v>
+        <v>176.5498247987693</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4299611556341</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="35">
@@ -30007,16 +30007,16 @@
         <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459407</v>
       </c>
       <c r="K35" t="n">
         <v>267.1880015163297</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2680391874428</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>178.7821234236173</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,22 +30025,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.09197235108879</v>
+        <v>15.0919723510888</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.4953028142921</v>
+        <v>89.711737037422</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0591682562687</v>
+        <v>258.5720343338216</v>
       </c>
       <c r="S35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
         <v>272.0591682562687</v>
@@ -30065,19 +30065,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>38.57840459243434</v>
       </c>
       <c r="D36" t="n">
-        <v>37.75578534864906</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>125.7355245857741</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161055</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890777</v>
@@ -30122,16 +30122,16 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30156,13 +30156,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.7007749271525</v>
+        <v>204.2572768609995</v>
       </c>
       <c r="H37" t="n">
         <v>165.8243976546666</v>
       </c>
       <c r="I37" t="n">
-        <v>200.4094700018121</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J37" t="n">
         <v>120.239607582909</v>
@@ -30171,7 +30171,7 @@
         <v>67.02998013918999</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817889</v>
+        <v>32.1518162481789</v>
       </c>
       <c r="M37" t="n">
         <v>25.21686539889346</v>
@@ -30180,7 +30180,7 @@
         <v>16.52015736928136</v>
       </c>
       <c r="O37" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777681</v>
       </c>
       <c r="P37" t="n">
         <v>58.47859890024888</v>
@@ -30241,43 +30241,43 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
+        <v>241.0097692154761</v>
+      </c>
+      <c r="J38" t="n">
+        <v>219.5572941195109</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6.727192146301</v>
+      </c>
+      <c r="L38" t="n">
+        <v>213.2680391874428</v>
+      </c>
+      <c r="M38" t="n">
+        <v>178.7821234236173</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="J38" t="n">
-        <v>272.0591682562687</v>
-      </c>
-      <c r="K38" t="n">
-        <v>196.6241360743533</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>15.09197235108879</v>
-      </c>
       <c r="Q38" t="n">
-        <v>272.0591682562687</v>
+        <v>89.711737037422</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30299,16 +30299,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>162.9495654520888</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161055</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890777</v>
@@ -30356,7 +30356,7 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -30365,10 +30365,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>41.98036072150089</v>
       </c>
     </row>
     <row r="40">
@@ -30408,16 +30408,16 @@
         <v>67.02998013918999</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817889</v>
+        <v>32.1518162481789</v>
       </c>
       <c r="M40" t="n">
         <v>25.21686539889346</v>
       </c>
       <c r="N40" t="n">
-        <v>52.0766593031284</v>
+        <v>16.52015736928136</v>
       </c>
       <c r="O40" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777681</v>
       </c>
       <c r="P40" t="n">
         <v>58.47859890024888</v>
@@ -30447,7 +30447,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>252.6977747480155</v>
       </c>
     </row>
     <row r="41">
@@ -30484,22 +30484,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="K41" t="n">
+        <v>6.727192146301</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
-        <v>54.69629248006599</v>
+        <v>241.009769215476</v>
       </c>
       <c r="O41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>61.46187499079268</v>
       </c>
       <c r="Q41" t="n">
         <v>241.009769215476</v>
@@ -30508,7 +30508,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
-        <v>241.009769215476</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T41" t="n">
         <v>241.009769215476</v>
@@ -30536,22 +30536,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>87.89823490543284</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>55.70355782671039</v>
       </c>
       <c r="H42" t="n">
         <v>125.7355245857741</v>
@@ -30590,10 +30590,10 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -30602,10 +30602,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30624,7 +30624,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>241.009769215476</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30636,7 +30636,7 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I43" t="n">
-        <v>164.852968067965</v>
+        <v>224.9927922803225</v>
       </c>
       <c r="J43" t="n">
         <v>120.239607582909</v>
@@ -30645,7 +30645,7 @@
         <v>67.02998013918999</v>
       </c>
       <c r="L43" t="n">
-        <v>35.91682266582644</v>
+        <v>32.1518162481789</v>
       </c>
       <c r="M43" t="n">
         <v>25.21686539889346</v>
@@ -30654,7 +30654,7 @@
         <v>16.52015736928136</v>
       </c>
       <c r="O43" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777681</v>
       </c>
       <c r="P43" t="n">
         <v>58.47859890024888</v>
@@ -30681,10 +30681,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>241.009769215476</v>
       </c>
     </row>
     <row r="44">
@@ -30724,19 +30724,19 @@
         <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>54.69629248006591</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>58.14820794463364</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>241.009769215476</v>
+        <v>15.0919723510888</v>
       </c>
       <c r="Q44" t="n">
         <v>241.009769215476</v>
@@ -30748,7 +30748,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30779,7 +30779,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30788,7 +30788,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.7355245857741</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161055</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
@@ -30830,19 +30830,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>42.30253574189598</v>
       </c>
       <c r="Y45" t="n">
-        <v>201.5065793956921</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>241.009769215476</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30870,19 +30870,19 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H46" t="n">
-        <v>165.8243976546666</v>
+        <v>182.7102479106087</v>
       </c>
       <c r="I46" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J46" t="n">
-        <v>223.3382420038076</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
         <v>67.02998013918999</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817889</v>
+        <v>32.1518162481789</v>
       </c>
       <c r="M46" t="n">
         <v>25.21686539889346</v>
@@ -30891,7 +30891,7 @@
         <v>16.52015736928136</v>
       </c>
       <c r="O46" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777681</v>
       </c>
       <c r="P46" t="n">
         <v>58.47859890024888</v>
@@ -30903,10 +30903,10 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661806</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T46" t="n">
-        <v>223.761558450323</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U46" t="n">
         <v>241.009769215476</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631732</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217848</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645943</v>
+        <v>34.5197779264594</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246056</v>
+        <v>51.73619878246053</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727854</v>
+        <v>64.1833294172785</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032863</v>
+        <v>71.41632078032858</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401895</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556019</v>
+        <v>68.52759814556015</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521934</v>
+        <v>58.4867195752193</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178814</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610824</v>
+        <v>9.268112219610817</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705384</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729617</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884582</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000169</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447575</v>
       </c>
       <c r="M12" t="n">
-        <v>55.1384043213325</v>
+        <v>55.13840432133247</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427552</v>
+        <v>56.59775381427548</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134018</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862166</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795502</v>
+        <v>27.778226057955</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935659</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971363</v>
+        <v>0.8771368109971356</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014378</v>
+        <v>5.486474402014374</v>
       </c>
       <c r="J13" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600455</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786391</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837953</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542648</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629247</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679431</v>
+        <v>0.7795172215679427</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590778</v>
+        <v>0.009951283679590771</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>0.4067191319631732</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217848</v>
       </c>
       <c r="I14" t="n">
         <v>15.68003933501025</v>
@@ -32002,13 +32002,13 @@
         <v>51.73619878246053</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727851</v>
+        <v>64.1833294172785</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032858</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401895</v>
       </c>
       <c r="O14" t="n">
         <v>68.52759814556015</v>
@@ -32017,19 +32017,19 @@
         <v>58.4867195752193</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178814</v>
       </c>
       <c r="R14" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610817</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705384</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H15" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729617</v>
       </c>
       <c r="J15" t="n">
         <v>20.55974324884582</v>
       </c>
       <c r="K15" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000169</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447575</v>
       </c>
       <c r="M15" t="n">
         <v>55.13840432133247</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427548</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134018</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862166</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795501</v>
+        <v>27.778226057955</v>
       </c>
       <c r="R15" t="n">
         <v>13.51115200922248</v>
@@ -32105,10 +32105,10 @@
         <v>4.042083127935657</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971356</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32157,10 +32157,10 @@
         <v>12.89852219602956</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600455</v>
       </c>
       <c r="M16" t="n">
         <v>28.59833074786391</v>
@@ -32187,7 +32187,7 @@
         <v>0.7795172215679427</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590771</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>0.4067191319631732</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217848</v>
       </c>
       <c r="I17" t="n">
         <v>15.68003933501025</v>
@@ -32239,13 +32239,13 @@
         <v>51.73619878246053</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727851</v>
+        <v>64.1833294172785</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032858</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401895</v>
       </c>
       <c r="O17" t="n">
         <v>68.52759814556015</v>
@@ -32254,19 +32254,19 @@
         <v>58.4867195752193</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178814</v>
       </c>
       <c r="R17" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610817</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705384</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H18" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729617</v>
       </c>
       <c r="J18" t="n">
         <v>20.55974324884582</v>
       </c>
       <c r="K18" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000169</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447575</v>
       </c>
       <c r="M18" t="n">
         <v>55.13840432133247</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427548</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134018</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862166</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795501</v>
+        <v>27.778226057955</v>
       </c>
       <c r="R18" t="n">
         <v>13.51115200922248</v>
@@ -32342,10 +32342,10 @@
         <v>4.042083127935657</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971356</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32394,10 +32394,10 @@
         <v>12.89852219602956</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600455</v>
       </c>
       <c r="M19" t="n">
         <v>28.59833074786391</v>
@@ -32424,7 +32424,7 @@
         <v>0.7795172215679427</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590771</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>0.4067191319631732</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217848</v>
       </c>
       <c r="I23" t="n">
         <v>15.68003933501025</v>
@@ -32713,13 +32713,13 @@
         <v>51.73619878246053</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727851</v>
+        <v>64.1833294172785</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032858</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401895</v>
       </c>
       <c r="O23" t="n">
         <v>68.52759814556015</v>
@@ -32728,19 +32728,19 @@
         <v>58.4867195752193</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178814</v>
       </c>
       <c r="R23" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610817</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705384</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,37 +32777,37 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H24" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729617</v>
       </c>
       <c r="J24" t="n">
         <v>20.55974324884582</v>
       </c>
       <c r="K24" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000169</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447575</v>
       </c>
       <c r="M24" t="n">
         <v>55.13840432133247</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427548</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134018</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862166</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795501</v>
+        <v>27.778226057955</v>
       </c>
       <c r="R24" t="n">
         <v>13.51115200922248</v>
@@ -32816,10 +32816,10 @@
         <v>4.042083127935657</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971356</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32868,10 +32868,10 @@
         <v>12.89852219602956</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600455</v>
       </c>
       <c r="M25" t="n">
         <v>28.59833074786391</v>
@@ -32898,7 +32898,7 @@
         <v>0.7795172215679427</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590771</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>0.4067191319631732</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217848</v>
       </c>
       <c r="I26" t="n">
         <v>15.68003933501025</v>
@@ -32950,13 +32950,13 @@
         <v>51.73619878246053</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727851</v>
+        <v>64.1833294172785</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032858</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401895</v>
       </c>
       <c r="O26" t="n">
         <v>68.52759814556015</v>
@@ -32965,19 +32965,19 @@
         <v>58.4867195752193</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178814</v>
       </c>
       <c r="R26" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610817</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705384</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,37 +33014,37 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H27" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729617</v>
       </c>
       <c r="J27" t="n">
         <v>20.55974324884582</v>
       </c>
       <c r="K27" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000169</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447575</v>
       </c>
       <c r="M27" t="n">
         <v>55.13840432133247</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427548</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134018</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862166</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795501</v>
+        <v>27.778226057955</v>
       </c>
       <c r="R27" t="n">
         <v>13.51115200922248</v>
@@ -33053,10 +33053,10 @@
         <v>4.042083127935657</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971356</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33105,10 +33105,10 @@
         <v>12.89852219602956</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600455</v>
       </c>
       <c r="M28" t="n">
         <v>28.59833074786391</v>
@@ -33135,7 +33135,7 @@
         <v>0.7795172215679427</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590771</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>0.4067191319631732</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217848</v>
       </c>
       <c r="I29" t="n">
         <v>15.68003933501025</v>
@@ -33187,13 +33187,13 @@
         <v>51.73619878246053</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727851</v>
+        <v>64.1833294172785</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032858</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401895</v>
       </c>
       <c r="O29" t="n">
         <v>68.52759814556015</v>
@@ -33202,19 +33202,19 @@
         <v>58.4867195752193</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178814</v>
       </c>
       <c r="R29" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610817</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705384</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,37 +33251,37 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H30" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729617</v>
       </c>
       <c r="J30" t="n">
         <v>20.55974324884582</v>
       </c>
       <c r="K30" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000169</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447575</v>
       </c>
       <c r="M30" t="n">
         <v>55.13840432133247</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427548</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134018</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862166</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795501</v>
+        <v>27.778226057955</v>
       </c>
       <c r="R30" t="n">
         <v>13.51115200922248</v>
@@ -33290,10 +33290,10 @@
         <v>4.042083127935657</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971356</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33342,10 +33342,10 @@
         <v>12.89852219602956</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600455</v>
       </c>
       <c r="M31" t="n">
         <v>28.59833074786391</v>
@@ -33372,7 +33372,7 @@
         <v>0.7795172215679427</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590771</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>0.4067191319631732</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217848</v>
       </c>
       <c r="I32" t="n">
         <v>15.68003933501025</v>
@@ -33424,13 +33424,13 @@
         <v>51.73619878246053</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727851</v>
+        <v>64.1833294172785</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032858</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401895</v>
       </c>
       <c r="O32" t="n">
         <v>68.52759814556015</v>
@@ -33439,19 +33439,19 @@
         <v>58.4867195752193</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178814</v>
       </c>
       <c r="R32" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610817</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705384</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,37 +33488,37 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H33" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729617</v>
       </c>
       <c r="J33" t="n">
         <v>20.55974324884582</v>
       </c>
       <c r="K33" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000169</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447575</v>
       </c>
       <c r="M33" t="n">
         <v>55.13840432133247</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427548</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134018</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862166</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795501</v>
+        <v>27.778226057955</v>
       </c>
       <c r="R33" t="n">
         <v>13.51115200922248</v>
@@ -33527,10 +33527,10 @@
         <v>4.042083127935657</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971356</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33579,10 +33579,10 @@
         <v>12.89852219602956</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600455</v>
       </c>
       <c r="M34" t="n">
         <v>28.59833074786391</v>
@@ -33609,7 +33609,7 @@
         <v>0.7795172215679427</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590771</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>0.4067191319631732</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217848</v>
       </c>
       <c r="I35" t="n">
         <v>15.68003933501025</v>
@@ -33661,13 +33661,13 @@
         <v>51.73619878246053</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727851</v>
+        <v>64.1833294172785</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032858</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401895</v>
       </c>
       <c r="O35" t="n">
         <v>68.52759814556015</v>
@@ -33676,19 +33676,19 @@
         <v>58.4867195752193</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178814</v>
       </c>
       <c r="R35" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610817</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705384</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,37 +33725,37 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H36" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729617</v>
       </c>
       <c r="J36" t="n">
         <v>20.55974324884582</v>
       </c>
       <c r="K36" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000169</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447575</v>
       </c>
       <c r="M36" t="n">
         <v>55.13840432133247</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427548</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134018</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862166</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795501</v>
+        <v>27.778226057955</v>
       </c>
       <c r="R36" t="n">
         <v>13.51115200922248</v>
@@ -33764,10 +33764,10 @@
         <v>4.042083127935657</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971356</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33816,10 +33816,10 @@
         <v>12.89852219602956</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600455</v>
       </c>
       <c r="M37" t="n">
         <v>28.59833074786391</v>
@@ -33846,7 +33846,7 @@
         <v>0.7795172215679427</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590771</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>0.4067191319631732</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217848</v>
       </c>
       <c r="I38" t="n">
         <v>15.68003933501025</v>
@@ -33898,13 +33898,13 @@
         <v>51.73619878246053</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727851</v>
+        <v>64.1833294172785</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032858</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401895</v>
       </c>
       <c r="O38" t="n">
         <v>68.52759814556015</v>
@@ -33913,19 +33913,19 @@
         <v>58.4867195752193</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178814</v>
       </c>
       <c r="R38" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610817</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705384</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33962,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H39" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729617</v>
       </c>
       <c r="J39" t="n">
         <v>20.55974324884582</v>
       </c>
       <c r="K39" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000169</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447575</v>
       </c>
       <c r="M39" t="n">
         <v>55.13840432133247</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427548</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134018</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862166</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795501</v>
+        <v>27.778226057955</v>
       </c>
       <c r="R39" t="n">
         <v>13.51115200922248</v>
@@ -34001,10 +34001,10 @@
         <v>4.042083127935657</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971356</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34053,10 +34053,10 @@
         <v>12.89852219602956</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600455</v>
       </c>
       <c r="M40" t="n">
         <v>28.59833074786391</v>
@@ -34083,7 +34083,7 @@
         <v>0.7795172215679427</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590771</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>0.4067191319631732</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217848</v>
       </c>
       <c r="I41" t="n">
         <v>15.68003933501025</v>
@@ -34135,13 +34135,13 @@
         <v>51.73619878246053</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727851</v>
+        <v>64.1833294172785</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032858</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401895</v>
       </c>
       <c r="O41" t="n">
         <v>68.52759814556015</v>
@@ -34150,19 +34150,19 @@
         <v>58.4867195752193</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178814</v>
       </c>
       <c r="R41" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610817</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705384</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,37 +34199,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H42" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729617</v>
       </c>
       <c r="J42" t="n">
         <v>20.55974324884582</v>
       </c>
       <c r="K42" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000169</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447575</v>
       </c>
       <c r="M42" t="n">
         <v>55.13840432133247</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427548</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134018</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862166</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795501</v>
+        <v>27.778226057955</v>
       </c>
       <c r="R42" t="n">
         <v>13.51115200922248</v>
@@ -34238,10 +34238,10 @@
         <v>4.042083127935657</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971356</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34290,10 +34290,10 @@
         <v>12.89852219602956</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600455</v>
       </c>
       <c r="M43" t="n">
         <v>28.59833074786391</v>
@@ -34320,7 +34320,7 @@
         <v>0.7795172215679427</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590771</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>0.4067191319631732</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217848</v>
       </c>
       <c r="I44" t="n">
         <v>15.68003933501025</v>
@@ -34372,13 +34372,13 @@
         <v>51.73619878246053</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727851</v>
+        <v>64.1833294172785</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032858</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401895</v>
       </c>
       <c r="O44" t="n">
         <v>68.52759814556015</v>
@@ -34387,19 +34387,19 @@
         <v>58.4867195752193</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178814</v>
       </c>
       <c r="R44" t="n">
         <v>25.5485706731817</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610817</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705384</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34436,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H45" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729617</v>
       </c>
       <c r="J45" t="n">
         <v>20.55974324884582</v>
       </c>
       <c r="K45" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000169</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447575</v>
       </c>
       <c r="M45" t="n">
         <v>55.13840432133247</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427548</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134018</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862166</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795501</v>
+        <v>27.778226057955</v>
       </c>
       <c r="R45" t="n">
         <v>13.51115200922248</v>
@@ -34475,10 +34475,10 @@
         <v>4.042083127935657</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971356</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34527,10 +34527,10 @@
         <v>12.89852219602956</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600455</v>
       </c>
       <c r="M46" t="n">
         <v>28.59833074786391</v>
@@ -34557,7 +34557,7 @@
         <v>0.7795172215679427</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590771</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35212,7 +35212,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.069987028295762</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
         <v>3.199249640013477</v>
@@ -35264,10 +35264,10 @@
         <v>3.199249640013477</v>
       </c>
       <c r="O9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258597</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641139</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N11" t="n">
-        <v>76.14680160873634</v>
+        <v>180.8818552053381</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019791</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564587</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543473</v>
+        <v>38.3467939554347</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35498,13 +35498,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,7 +35547,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.96561390235715</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35562,16 +35562,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.29529608510281</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90865657015889</v>
       </c>
       <c r="K13" t="n">
-        <v>41.21547906755543</v>
+        <v>111.1182840138779</v>
       </c>
       <c r="L13" t="n">
-        <v>145.996447904889</v>
+        <v>91.59374165376637</v>
       </c>
       <c r="M13" t="n">
         <v>152.9313987541744</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.669665252819</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937861</v>
+        <v>50.93127818937863</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258595</v>
+        <v>118.1978816049435</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641133</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514375</v>
       </c>
       <c r="O14" t="n">
         <v>34.56629766936132</v>
       </c>
       <c r="P14" t="n">
-        <v>145.6248761086907</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564584</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543471</v>
+        <v>38.3467939554347</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35738,7 +35738,7 @@
         <v>188.4979333192471</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
         <v>84.46981137181805</v>
@@ -35778,25 +35778,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.5313434880997647</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.69108318109551</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.96561390235715</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.47212294084287</v>
       </c>
       <c r="F16" t="n">
-        <v>39.22138193462118</v>
+        <v>39.22138193462121</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.447489225915389</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840127</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1182840138778</v>
+        <v>44.55902580111093</v>
       </c>
       <c r="L16" t="n">
-        <v>145.9964479048889</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>52.78004853164205</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6281067837865</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.669665252819</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937863</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150847</v>
+        <v>56.43790171150836</v>
       </c>
       <c r="J17" t="n">
-        <v>37.06824088270371</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258595</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641133</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514375</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936132</v>
+        <v>107.8772904871871</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446177</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716528</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433478</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543471</v>
+        <v>38.3467939554347</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -36121,16 +36121,16 @@
         <v>188.4979333192471</v>
       </c>
       <c r="K20" t="n">
-        <v>23.57546622567622</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258595</v>
+        <v>146.3155575359768</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641135</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514377</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O20" t="n">
         <v>34.56629766936132</v>
@@ -36142,16 +36142,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853628</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716522</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433472</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
@@ -36355,31 +36355,31 @@
         <v>56.43790171150842</v>
       </c>
       <c r="J23" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258595</v>
+        <v>47.19277018258593</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641133</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514377</v>
+        <v>149.5041330147183</v>
       </c>
       <c r="O23" t="n">
         <v>34.56629766936132</v>
       </c>
       <c r="P23" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.41535206957465</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543471</v>
+        <v>38.3467939554347</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5117642464704</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404387</v>
@@ -36595,10 +36595,10 @@
         <v>136.7031315594069</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777005</v>
       </c>
       <c r="L26" t="n">
-        <v>260.6775207065875</v>
+        <v>260.6775207065869</v>
       </c>
       <c r="M26" t="n">
         <v>295.1634364704123</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543471</v>
+        <v>38.3467939554347</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.78397559684852</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>188.2678851251075</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>187.7875544646334</v>
       </c>
       <c r="O28" t="n">
-        <v>44.30364493637438</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>206.7575583777</v>
       </c>
       <c r="L29" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065869</v>
       </c>
       <c r="M29" t="n">
         <v>295.1634364704123</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543471</v>
+        <v>38.3467939554347</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>35.60693690676231</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>46.51087416689083</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>196.9645931547196</v>
       </c>
       <c r="O31" t="n">
-        <v>176.0058665262242</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.05478936836687</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262713</v>
+        <v>137.5308414262711</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445643</v>
+        <v>187.4681434944501</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734513</v>
+        <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
         <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4012413360091</v>
+        <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
-        <v>228.7616333101118</v>
+        <v>248.8787580602265</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397765</v>
+        <v>199.2204880397764</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534433</v>
+        <v>124.6007233534432</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849846</v>
+        <v>19.43091500849837</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543471</v>
+        <v>38.3467939554347</v>
       </c>
       <c r="L33" t="n">
         <v>118.5181001296708</v>
@@ -37200,13 +37200,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.69553972589722</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.85527941889288</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>69.12981014015452</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37218,13 +37218,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>46.43203509550433</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.45949232290027</v>
+        <v>49.45949232290018</v>
       </c>
       <c r="J34" t="n">
-        <v>94.07285280795635</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>49.33283883508007</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.8824992352311</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>31.04939904079266</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258595</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641135</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514375</v>
       </c>
       <c r="O35" t="n">
         <v>34.56629766936132</v>
@@ -37324,19 +37324,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>111.7835657768702</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390187</v>
+        <v>63.69048895145477</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782054</v>
+        <v>44.54217369782053</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543471</v>
+        <v>38.3467939554347</v>
       </c>
       <c r="L36" t="n">
         <v>118.5181001296708</v>
@@ -37452,13 +37452,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079266</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2775492916747</v>
+        <v>142.7756751549168</v>
       </c>
       <c r="K38" t="n">
-        <v>189.8969439280523</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258595</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641135</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514375</v>
       </c>
       <c r="O38" t="n">
         <v>34.56629766936132</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>256.9671959051799</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3474312188467</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390187</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782054</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543471</v>
+        <v>38.3467939554347</v>
       </c>
       <c r="L39" t="n">
         <v>118.5181001296708</v>
@@ -37710,40 +37710,40 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37780,31 +37780,31 @@
         <v>164.228150250882</v>
       </c>
       <c r="K41" t="n">
-        <v>234.282577069175</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>47.19277018258595</v>
+        <v>47.19277018258593</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641135</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N41" t="n">
-        <v>130.7850734252098</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O41" t="n">
         <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643872</v>
+        <v>46.36990263970388</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2980321780541</v>
+        <v>151.298032178054</v>
       </c>
       <c r="R41" t="n">
         <v>46.12822383310919</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702786</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>18.54388781565679</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543471</v>
+        <v>38.3467939554347</v>
       </c>
       <c r="L42" t="n">
         <v>118.5181001296708</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.33362800325105</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.13982421235746</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>3.765006417647556</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37977,10 +37977,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>19.09031380723351</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>23.86849640130762</v>
       </c>
     </row>
     <row r="44">
@@ -38020,22 +38020,22 @@
         <v>234.282577069175</v>
       </c>
       <c r="L44" t="n">
-        <v>101.8890626626519</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
         <v>322.6884551618874</v>
       </c>
       <c r="N44" t="n">
-        <v>76.08878094514377</v>
+        <v>134.2369888897774</v>
       </c>
       <c r="O44" t="n">
         <v>34.56629766936132</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643872</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2980321780541</v>
+        <v>151.298032178054</v>
       </c>
       <c r="R44" t="n">
         <v>46.12822383310919</v>
@@ -38044,7 +38044,7 @@
         <v>13.49277465702786</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543471</v>
+        <v>38.3467939554347</v>
       </c>
       <c r="L45" t="n">
         <v>118.5181001296708</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>63.39284855050795</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38166,13 +38166,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.88585025594215</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295476</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.24821076515303</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
